--- a/tests/outputs/timedelta2.xlsx
+++ b/tests/outputs/timedelta2.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,16 +19,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="yyyy\-mm\-dd\ h\:mm\:ss\ AM/PM" numFmtId="165"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss AM/PM" numFmtId="166"/>
-    <numFmt formatCode="[hh]:mm:ss" numFmtId="167"/>
-    <numFmt formatCode="[h]\:mm\:ss;\-[h]\:mm\:ss" numFmtId="168"/>
-    <numFmt formatCode="[m]\:ss" numFmtId="169"/>
-    <numFmt formatCode="[s]" numFmtId="170"/>
-    <numFmt formatCode="[h]\hm\ms\s" numFmtId="171"/>
-    <numFmt formatCode="h\hmm\mss\s" numFmtId="172"/>
-    <numFmt formatCode="[m]" numFmtId="173"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h\:mm\:ss\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss AM/PM"/>
+    <numFmt numFmtId="167" formatCode="[hh]:mm:ss"/>
+    <numFmt numFmtId="168" formatCode="[h]\:mm\:ss;\-[h]\:mm\:ss"/>
+    <numFmt numFmtId="169" formatCode="[m]\:ss"/>
+    <numFmt numFmtId="170" formatCode="[s]"/>
+    <numFmt numFmtId="171" formatCode="[h]\hm\ms\s"/>
+    <numFmt numFmtId="172" formatCode="h\hmm\mss\s"/>
+    <numFmt numFmtId="173" formatCode="[m]"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -81,7 +81,6 @@
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -96,7 +95,6 @@
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -111,7 +109,6 @@
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -126,7 +123,6 @@
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left>
@@ -141,61 +137,128 @@
       <bottom>
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="169" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="170" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="171" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="2" numFmtId="172" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="173" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -496,11 +559,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="22.99571428571429"/>
-    <col customWidth="1" max="2" min="2" width="22.85285714285714"/>
+    <col width="22.99571428571429" customWidth="1" min="1" max="1"/>
+    <col width="22.85285714285714" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Test timedelta</t>
@@ -512,7 +575,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="2">
+    <row r="2" ht="16.5" customHeight="1">
       <c r="A2" s="3" t="n">
         <v>44044.625</v>
       </c>
@@ -520,7 +583,7 @@
         <v>44044.625</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="3">
+    <row r="3" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="n">
         <v>44044.54309027778</v>
       </c>
@@ -528,7 +591,7 @@
         <v>44044.54309027778</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="4">
+    <row r="4" ht="16.5" customHeight="1">
       <c r="A4" s="5" t="n">
         <v>0.08190972222222222</v>
       </c>
@@ -536,7 +599,7 @@
         <v>0.08190972222222222</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="5">
+    <row r="5" ht="16.5" customHeight="1">
       <c r="A5" s="7" t="n">
         <v>0.08190972222222222</v>
       </c>
@@ -546,7 +609,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="6">
+    <row r="6" ht="16.5" customHeight="1">
       <c r="A6" s="9" t="n">
         <v>0.08190972222222222</v>
       </c>
@@ -554,7 +617,7 @@
         <v>7077</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="7">
+    <row r="7" ht="16.5" customHeight="1">
       <c r="A7" s="10" t="n">
         <v>0.08190972222222222</v>
       </c>
@@ -562,7 +625,7 @@
         <v>0.08190972222222222</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="8">
+    <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="12" t="n">
         <v>0.08125</v>
       </c>
@@ -570,12 +633,12 @@
         <v>117</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.5" r="9">
+    <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="13" t="inlineStr"/>
       <c r="B9" s="14" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -593,14 +656,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9.852857142857143"/>
+    <col width="9.852857142857143" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="13" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -618,13 +681,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="9.852857142857143"/>
+    <col width="9.852857142857143" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="16.5" r="1">
+    <row r="1" ht="16.5" customHeight="1">
       <c r="A1" s="13" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>